--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="132">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,22 +40,31 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fear</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>panic</t>
@@ -64,298 +73,340 @@
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>low</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>demand</t>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>market</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
+    <t>see</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>business</t>
   </si>
   <si>
     <t>corona</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
     <t>masks</t>
   </si>
   <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>business</t>
+    <t>would</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
   <si>
     <t>paper</t>
   </si>
   <si>
+    <t>people</t>
+  </si>
+  <si>
     <t>workers</t>
   </si>
   <si>
     <t>go</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>going</t>
   </si>
   <si>
     <t>food</t>
@@ -716,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:Q111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,10 +775,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -785,13 +836,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -806,28 +857,28 @@
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K3">
-        <v>0.905982905982906</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="N3">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -835,13 +886,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -853,31 +904,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.8818897637795275</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -885,13 +936,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -906,25 +957,25 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.8807339449541285</v>
+        <v>0.8984375</v>
       </c>
       <c r="L5">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="N5">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -935,13 +986,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.773972602739726</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="C6">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -953,31 +1004,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.8085106382978723</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1006,28 +1057,28 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.8080808080808081</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L7">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="N7">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1035,13 +1086,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6774193548387096</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1053,31 +1104,31 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.7948717948717948</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L8">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="N8">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1085,49 +1136,49 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5097276264591439</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C9">
-        <v>262</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>264</v>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.76657824933687</v>
+        <v>0.8591549295774648</v>
       </c>
       <c r="L9">
-        <v>289</v>
+        <v>122</v>
       </c>
       <c r="M9">
-        <v>295</v>
+        <v>122</v>
       </c>
       <c r="N9">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1135,13 +1186,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4933333333333333</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C10">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1153,31 +1204,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.7640449438202247</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="M10">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="N10">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1185,49 +1236,49 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4814814814814815</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E11">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.762114537444934</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L11">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="M11">
-        <v>185</v>
+        <v>69</v>
       </c>
       <c r="N11">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1235,13 +1286,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3766233766233766</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>276</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>276</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1253,31 +1304,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.7375</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="L12">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M12">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N12">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1285,13 +1336,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3725490196078431</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1303,31 +1354,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.7241379310344828</v>
+        <v>0.8125</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="M13">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="N13">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1335,13 +1386,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2013422818791946</v>
+        <v>0.3221476510067114</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1353,31 +1404,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.6749116607773852</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L14">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="M14">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1385,13 +1436,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.05898123324396783</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1403,31 +1454,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>351</v>
+        <v>56</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.6697530864197531</v>
+        <v>0.7670157068062827</v>
       </c>
       <c r="L15">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="M15">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="N15">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1435,553 +1486,505 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02520478890989288</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>231</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.7553191489361702</v>
+      </c>
+      <c r="L16">
+        <v>71</v>
+      </c>
+      <c r="M16">
+        <v>71</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>0.7531380753138075</v>
+      </c>
+      <c r="L17">
+        <v>180</v>
+      </c>
+      <c r="M17">
+        <v>180</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>0.7285714285714285</v>
+      </c>
+      <c r="L18">
+        <v>51</v>
+      </c>
+      <c r="M18">
+        <v>51</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>0.6966292134831461</v>
+      </c>
+      <c r="L19">
+        <v>62</v>
+      </c>
+      <c r="M19">
+        <v>62</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D16">
-        <v>596</v>
-      </c>
-      <c r="E16">
-        <v>0.93</v>
-      </c>
-      <c r="F16">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1547</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16">
-        <v>0.6304347826086957</v>
-      </c>
-      <c r="L16">
-        <v>29</v>
-      </c>
-      <c r="M16">
-        <v>29</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
+      <c r="K20">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="L20">
+        <v>205</v>
+      </c>
+      <c r="M20">
+        <v>205</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21">
+        <v>0.6911764705882353</v>
+      </c>
+      <c r="L21">
+        <v>235</v>
+      </c>
+      <c r="M21">
+        <v>235</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="L22">
+        <v>23</v>
+      </c>
+      <c r="M22">
+        <v>23</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>0.559322033898305</v>
+      </c>
+      <c r="L23">
+        <v>33</v>
+      </c>
+      <c r="M23">
+        <v>33</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>0.5329218106995884</v>
+      </c>
+      <c r="L24">
+        <v>259</v>
+      </c>
+      <c r="M24">
+        <v>259</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="L25">
+        <v>27</v>
+      </c>
+      <c r="M25">
+        <v>27</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26">
+        <v>0.5230769230769231</v>
+      </c>
+      <c r="L26">
+        <v>34</v>
+      </c>
+      <c r="M26">
+        <v>34</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27">
+        <v>0.52</v>
+      </c>
+      <c r="L27">
+        <v>26</v>
+      </c>
+      <c r="M27">
+        <v>26</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28">
+        <v>0.5164835164835165</v>
+      </c>
+      <c r="L28">
+        <v>47</v>
+      </c>
+      <c r="M28">
+        <v>47</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29">
+        <v>0.515625</v>
+      </c>
+      <c r="L29">
+        <v>33</v>
+      </c>
+      <c r="M29">
+        <v>33</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>0.5116279069767442</v>
+      </c>
+      <c r="L30">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>0.02425876010781671</v>
-      </c>
-      <c r="C17">
-        <v>54</v>
-      </c>
-      <c r="D17">
-        <v>935</v>
-      </c>
-      <c r="E17">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F17">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>2172</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17">
-        <v>0.6</v>
-      </c>
-      <c r="L17">
+      <c r="M30">
+        <v>22</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M17">
-        <v>55</v>
-      </c>
-      <c r="N17">
-        <v>0.93</v>
-      </c>
-      <c r="O17">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.01219032638615808</v>
-      </c>
-      <c r="C18">
-        <v>31</v>
-      </c>
-      <c r="D18">
-        <v>689</v>
-      </c>
-      <c r="E18">
-        <v>0.96</v>
-      </c>
-      <c r="F18">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>2512</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="L18">
-        <v>33</v>
-      </c>
-      <c r="M18">
-        <v>34</v>
-      </c>
-      <c r="N18">
-        <v>0.97</v>
-      </c>
-      <c r="O18">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L19">
-        <v>35</v>
-      </c>
-      <c r="M19">
-        <v>35</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20">
-        <v>0.5074626865671642</v>
-      </c>
-      <c r="L20">
-        <v>34</v>
-      </c>
-      <c r="M20">
-        <v>37</v>
-      </c>
-      <c r="N20">
-        <v>0.92</v>
-      </c>
-      <c r="O20">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P20" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21">
-        <v>0.5</v>
-      </c>
-      <c r="L21">
+      <c r="K31">
+        <v>0.50920245398773</v>
+      </c>
+      <c r="L31">
+        <v>83</v>
+      </c>
+      <c r="M31">
+        <v>83</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>80</v>
       </c>
-      <c r="M21">
-        <v>83</v>
-      </c>
-      <c r="N21">
-        <v>0.96</v>
-      </c>
-      <c r="O21">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P21" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22">
-        <v>0.4685990338164251</v>
-      </c>
-      <c r="L22">
-        <v>97</v>
-      </c>
-      <c r="M22">
-        <v>105</v>
-      </c>
-      <c r="N22">
-        <v>0.92</v>
-      </c>
-      <c r="O22">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23">
-        <v>0.4679802955665024</v>
-      </c>
-      <c r="L23">
-        <v>190</v>
-      </c>
-      <c r="M23">
-        <v>202</v>
-      </c>
-      <c r="N23">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O23">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24">
-        <v>0.4556962025316456</v>
-      </c>
-      <c r="L24">
-        <v>72</v>
-      </c>
-      <c r="M24">
-        <v>73</v>
-      </c>
-      <c r="N24">
-        <v>0.99</v>
-      </c>
-      <c r="O24">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25">
-        <v>0.4468085106382979</v>
-      </c>
-      <c r="L25">
-        <v>21</v>
-      </c>
-      <c r="M25">
-        <v>22</v>
-      </c>
-      <c r="N25">
-        <v>0.95</v>
-      </c>
-      <c r="O25">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K26">
-        <v>0.425531914893617</v>
-      </c>
-      <c r="L26">
-        <v>20</v>
-      </c>
-      <c r="M26">
-        <v>20</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27">
-        <v>0.4211618257261411</v>
-      </c>
-      <c r="L27">
-        <v>203</v>
-      </c>
-      <c r="M27">
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32">
+        <v>0.5047846889952153</v>
+      </c>
+      <c r="L32">
+        <v>211</v>
+      </c>
+      <c r="M32">
+        <v>211</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>207</v>
-      </c>
-      <c r="N27">
-        <v>0.98</v>
-      </c>
-      <c r="O27">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K28">
-        <v>0.4181818181818182</v>
-      </c>
-      <c r="L28">
-        <v>23</v>
-      </c>
-      <c r="M28">
-        <v>25</v>
-      </c>
-      <c r="N28">
-        <v>0.92</v>
-      </c>
-      <c r="O28">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29">
-        <v>0.4032786885245901</v>
-      </c>
-      <c r="L29">
-        <v>123</v>
-      </c>
-      <c r="M29">
-        <v>126</v>
-      </c>
-      <c r="N29">
-        <v>0.98</v>
-      </c>
-      <c r="O29">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K30">
-        <v>0.4</v>
-      </c>
-      <c r="L30">
-        <v>38</v>
-      </c>
-      <c r="M30">
-        <v>40</v>
-      </c>
-      <c r="N30">
-        <v>0.95</v>
-      </c>
-      <c r="O30">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="L31">
-        <v>25</v>
-      </c>
-      <c r="M31">
-        <v>27</v>
-      </c>
-      <c r="N31">
-        <v>0.93</v>
-      </c>
-      <c r="O31">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P31" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K32">
-        <v>0.375</v>
-      </c>
-      <c r="L32">
-        <v>24</v>
-      </c>
-      <c r="M32">
-        <v>25</v>
-      </c>
-      <c r="N32">
-        <v>0.96</v>
-      </c>
-      <c r="O32">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>40</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.374384236453202</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L33">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="N33">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>254</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.3725490196078431</v>
+        <v>0.4930232558139535</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1993,15 +1996,15 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>32</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.3658536585365854</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L35">
         <v>30</v>
@@ -2019,47 +2022,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.3653846153846154</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="L36">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M36">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="N36">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.3652173913043478</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="L37">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="M37">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2071,21 +2074,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.3626373626373626</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="L38">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2097,21 +2100,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.3559322033898305</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2123,229 +2126,229 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.3541430192962542</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="L40">
-        <v>312</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>325</v>
+        <v>27</v>
       </c>
       <c r="N40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>569</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.3531157270029673</v>
+        <v>0.4477611940298508</v>
       </c>
       <c r="L41">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="N41">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>218</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.3333333333333333</v>
+        <v>0.4432989690721649</v>
       </c>
       <c r="L42">
+        <v>43</v>
+      </c>
+      <c r="M42">
+        <v>43</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>54</v>
-      </c>
-      <c r="M42">
-        <v>57</v>
-      </c>
-      <c r="N42">
-        <v>0.95</v>
-      </c>
-      <c r="O42">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>108</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.3246753246753247</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N43">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K44">
-        <v>0.3231939163498099</v>
+        <v>0.4303030303030303</v>
       </c>
       <c r="L44">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="M44">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="N44">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>178</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K45">
-        <v>0.3225806451612903</v>
+        <v>0.4183673469387755</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N45">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K46">
-        <v>0.3157894736842105</v>
+        <v>0.4160583941605839</v>
       </c>
       <c r="L46">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="M46">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="N46">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>156</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K47">
-        <v>0.2998872604284104</v>
+        <v>0.4134615384615384</v>
       </c>
       <c r="L47">
-        <v>266</v>
+        <v>172</v>
       </c>
       <c r="M47">
-        <v>280</v>
+        <v>172</v>
       </c>
       <c r="N47">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>621</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K48">
-        <v>0.2959183673469388</v>
+        <v>0.4088050314465409</v>
       </c>
       <c r="L48">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="M48">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2357,281 +2360,281 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K49">
-        <v>0.2903225806451613</v>
+        <v>0.4086956521739131</v>
       </c>
       <c r="L49">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="M49">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N49">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K50">
-        <v>0.2898032200357782</v>
+        <v>0.3955223880597015</v>
       </c>
       <c r="L50">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="M50">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="N50">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>397</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="K51">
-        <v>0.2885686210284966</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="L51">
-        <v>881</v>
+        <v>120</v>
       </c>
       <c r="M51">
-        <v>935</v>
+        <v>120</v>
       </c>
       <c r="N51">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>2172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K52">
-        <v>0.2875</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="L52">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M52">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="N52">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>228</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K53">
-        <v>0.2844036697247707</v>
+        <v>0.3826086956521739</v>
       </c>
       <c r="L53">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="M53">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="N53">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>78</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K54">
-        <v>0.2843601895734597</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="L54">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="M54">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="N54">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>151</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K55">
-        <v>0.2818181818181818</v>
+        <v>0.3780487804878049</v>
       </c>
       <c r="L55">
         <v>31</v>
       </c>
       <c r="M55">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N55">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K56">
-        <v>0.28125</v>
+        <v>0.375</v>
       </c>
       <c r="L56">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M56">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N56">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>92</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K57">
-        <v>0.2727272727272727</v>
+        <v>0.3670886075949367</v>
       </c>
       <c r="L57">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M57">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N57">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K58">
-        <v>0.2692307692307692</v>
+        <v>0.366412213740458</v>
       </c>
       <c r="L58">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M58">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="N58">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K59">
-        <v>0.2672413793103448</v>
+        <v>0.3552631578947368</v>
       </c>
       <c r="L59">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M59">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2643,21 +2646,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K60">
-        <v>0.2657342657342657</v>
+        <v>0.3534883720930233</v>
       </c>
       <c r="L60">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="M60">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2669,21 +2672,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>105</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K61">
-        <v>0.2653061224489796</v>
+        <v>0.3512304250559284</v>
       </c>
       <c r="L61">
-        <v>39</v>
+        <v>314</v>
       </c>
       <c r="M61">
-        <v>39</v>
+        <v>314</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2695,33 +2698,33 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>108</v>
+        <v>580</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="K62">
-        <v>0.2643842130290062</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L62">
-        <v>556</v>
+        <v>24</v>
       </c>
       <c r="M62">
-        <v>596</v>
+        <v>24</v>
       </c>
       <c r="N62">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>1547</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2729,25 +2732,25 @@
         <v>83</v>
       </c>
       <c r="K63">
-        <v>0.2619047619047619</v>
+        <v>0.3401360544217687</v>
       </c>
       <c r="L63">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="M63">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="N63">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2755,13 +2758,13 @@
         <v>84</v>
       </c>
       <c r="K64">
-        <v>0.25</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="L64">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M64">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2773,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2781,25 +2784,25 @@
         <v>85</v>
       </c>
       <c r="K65">
-        <v>0.24375</v>
+        <v>0.33810888252149</v>
       </c>
       <c r="L65">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="M65">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="N65">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>484</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2807,25 +2810,25 @@
         <v>86</v>
       </c>
       <c r="K66">
-        <v>0.2330827067669173</v>
+        <v>0.3356643356643357</v>
       </c>
       <c r="L66">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M66">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N66">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2833,25 +2836,25 @@
         <v>87</v>
       </c>
       <c r="K67">
-        <v>0.2314814814814815</v>
+        <v>0.3307086614173229</v>
       </c>
       <c r="L67">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M67">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N67">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2859,22 +2862,22 @@
         <v>88</v>
       </c>
       <c r="K68">
-        <v>0.2268041237113402</v>
+        <v>0.3303571428571428</v>
       </c>
       <c r="L68">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M68">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N68">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
         <v>75</v>
@@ -2885,25 +2888,25 @@
         <v>89</v>
       </c>
       <c r="K69">
-        <v>0.2237762237762238</v>
+        <v>0.3195876288659794</v>
       </c>
       <c r="L69">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="M69">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="N69">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>666</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2911,25 +2914,25 @@
         <v>90</v>
       </c>
       <c r="K70">
-        <v>0.2212765957446808</v>
+        <v>0.3149847094801223</v>
       </c>
       <c r="L70">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="M70">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="N70">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>183</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2937,25 +2940,25 @@
         <v>91</v>
       </c>
       <c r="K71">
-        <v>0.2208588957055215</v>
+        <v>0.3082706766917293</v>
       </c>
       <c r="L71">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M71">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N71">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2963,25 +2966,25 @@
         <v>92</v>
       </c>
       <c r="K72">
-        <v>0.2204724409448819</v>
+        <v>0.3074361820199778</v>
       </c>
       <c r="L72">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="M72">
-        <v>29</v>
+        <v>277</v>
       </c>
       <c r="N72">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>99</v>
+        <v>624</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2989,25 +2992,25 @@
         <v>93</v>
       </c>
       <c r="K73">
-        <v>0.2204724409448819</v>
+        <v>0.3064516129032258</v>
       </c>
       <c r="L73">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M73">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N73">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -3015,91 +3018,91 @@
         <v>94</v>
       </c>
       <c r="K74">
-        <v>0.2137404580152672</v>
+        <v>0.3051146384479718</v>
       </c>
       <c r="L74">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="M74">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="N74">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>103</v>
+        <v>394</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="K75">
-        <v>0.2075709779179811</v>
+        <v>0.2983870967741936</v>
       </c>
       <c r="L75">
-        <v>658</v>
+        <v>37</v>
       </c>
       <c r="M75">
-        <v>689</v>
+        <v>37</v>
       </c>
       <c r="N75">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>2512</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K76">
-        <v>0.2058823529411765</v>
+        <v>0.2969924812030075</v>
       </c>
       <c r="L76">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="M76">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N76">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="O76">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>108</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K77">
-        <v>0.2016129032258064</v>
+        <v>0.296875</v>
       </c>
       <c r="L77">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M77">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3111,21 +3114,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K78">
-        <v>0.198019801980198</v>
+        <v>0.2949130714745654</v>
       </c>
       <c r="L78">
-        <v>20</v>
+        <v>916</v>
       </c>
       <c r="M78">
-        <v>20</v>
+        <v>917</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3134,24 +3137,24 @@
         <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>81</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K79">
-        <v>0.1946902654867257</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L79">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M79">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3163,47 +3166,47 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K80">
-        <v>0.1935483870967742</v>
+        <v>0.2868217054263566</v>
       </c>
       <c r="L80">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M80">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N80">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K81">
-        <v>0.1932773109243698</v>
+        <v>0.2822429906542056</v>
       </c>
       <c r="L81">
-        <v>23</v>
+        <v>604</v>
       </c>
       <c r="M81">
-        <v>23</v>
+        <v>607</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3212,336 +3215,336 @@
         <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>96</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K82">
-        <v>0.1925925925925926</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="L82">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M82">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N82">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K83">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="L83">
+        <v>36</v>
+      </c>
+      <c r="M83">
+        <v>36</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
         <v>102</v>
-      </c>
-      <c r="K83">
-        <v>0.1882352941176471</v>
-      </c>
-      <c r="L83">
-        <v>32</v>
-      </c>
-      <c r="M83">
-        <v>34</v>
-      </c>
-      <c r="N83">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O83">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P83" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q83">
-        <v>138</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K84">
-        <v>0.185792349726776</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="L84">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M84">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N84">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>149</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K85">
-        <v>0.1844660194174757</v>
+        <v>0.2588597842835131</v>
       </c>
       <c r="L85">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="M85">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="N85">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O85">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>84</v>
+        <v>481</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K86">
-        <v>0.1769911504424779</v>
+        <v>0.2588235294117647</v>
       </c>
       <c r="L86">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M86">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N86">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>186</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K87">
-        <v>0.1605351170568562</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="L87">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="M87">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="N87">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>251</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K88">
-        <v>0.1512605042016807</v>
+        <v>0.2568807339449541</v>
       </c>
       <c r="L88">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="M88">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N88">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>303</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K89">
-        <v>0.1475409836065574</v>
+        <v>0.25</v>
       </c>
       <c r="L89">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M89">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N89">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>260</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K90">
-        <v>0.1383928571428572</v>
+        <v>0.2439306358381503</v>
       </c>
       <c r="L90">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c r="M90">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="N90">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O90">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P90" t="b">
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>193</v>
+        <v>654</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K91">
-        <v>0.1290322580645161</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="L91">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M91">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N91">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>243</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K92">
-        <v>0.1283607979184735</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L92">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="M92">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="N92">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O92">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>1005</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K93">
-        <v>0.1111111111111111</v>
+        <v>0.2300884955752212</v>
       </c>
       <c r="L93">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="M93">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N93">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>480</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K94">
-        <v>0.1</v>
+        <v>0.2246376811594203</v>
       </c>
       <c r="L94">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M94">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3553,33 +3556,449 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>207</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K95">
-        <v>0.0694006309148265</v>
+        <v>0.2212389380530974</v>
       </c>
       <c r="L95">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="M95">
+        <v>25</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
+      <c r="J96" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K96">
+        <v>0.218978102189781</v>
+      </c>
+      <c r="L96">
+        <v>30</v>
+      </c>
+      <c r="M96">
+        <v>30</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="10:17">
+      <c r="J97" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K97">
+        <v>0.2162162162162162</v>
+      </c>
+      <c r="L97">
+        <v>40</v>
+      </c>
+      <c r="M97">
+        <v>40</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="10:17">
+      <c r="J98" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K98">
+        <v>0.2035714285714286</v>
+      </c>
+      <c r="L98">
+        <v>57</v>
+      </c>
+      <c r="M98">
+        <v>58</v>
+      </c>
+      <c r="N98">
+        <v>0.98</v>
+      </c>
+      <c r="O98">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P98" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" spans="10:17">
+      <c r="J99" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K99">
+        <v>0.2026143790849673</v>
+      </c>
+      <c r="L99">
+        <v>62</v>
+      </c>
+      <c r="M99">
+        <v>62</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="100" spans="10:17">
+      <c r="J100" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K100">
+        <v>0.2019230769230769</v>
+      </c>
+      <c r="L100">
+        <v>21</v>
+      </c>
+      <c r="M100">
+        <v>21</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q100">
         <v>83</v>
       </c>
-      <c r="N95">
-        <v>0.8</v>
-      </c>
-      <c r="O95">
-        <v>0.2</v>
-      </c>
-      <c r="P95" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q95">
-        <v>885</v>
+    </row>
+    <row r="101" spans="10:17">
+      <c r="J101" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K101">
+        <v>0.1953735542356987</v>
+      </c>
+      <c r="L101">
+        <v>625</v>
+      </c>
+      <c r="M101">
+        <v>627</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="102" spans="10:17">
+      <c r="J102" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K102">
+        <v>0.1926605504587156</v>
+      </c>
+      <c r="L102">
+        <v>21</v>
+      </c>
+      <c r="M102">
+        <v>21</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="10:17">
+      <c r="J103" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K103">
+        <v>0.1802325581395349</v>
+      </c>
+      <c r="L103">
+        <v>31</v>
+      </c>
+      <c r="M103">
+        <v>31</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="10:17">
+      <c r="J104" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K104">
+        <v>0.176</v>
+      </c>
+      <c r="L104">
+        <v>22</v>
+      </c>
+      <c r="M104">
+        <v>22</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="10:17">
+      <c r="J105" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K105">
+        <v>0.16</v>
+      </c>
+      <c r="L105">
+        <v>36</v>
+      </c>
+      <c r="M105">
+        <v>36</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106" spans="10:17">
+      <c r="J106" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K106">
+        <v>0.1464254952627046</v>
+      </c>
+      <c r="L106">
+        <v>170</v>
+      </c>
+      <c r="M106">
+        <v>170</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="107" spans="10:17">
+      <c r="J107" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K107">
+        <v>0.145374449339207</v>
+      </c>
+      <c r="L107">
+        <v>33</v>
+      </c>
+      <c r="M107">
+        <v>33</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108" spans="10:17">
+      <c r="J108" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K108">
+        <v>0.1307550644567219</v>
+      </c>
+      <c r="L108">
+        <v>71</v>
+      </c>
+      <c r="M108">
+        <v>73</v>
+      </c>
+      <c r="N108">
+        <v>0.97</v>
+      </c>
+      <c r="O108">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P108" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q108">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="109" spans="10:17">
+      <c r="J109" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K109">
+        <v>0.1275167785234899</v>
+      </c>
+      <c r="L109">
+        <v>38</v>
+      </c>
+      <c r="M109">
+        <v>40</v>
+      </c>
+      <c r="N109">
+        <v>0.95</v>
+      </c>
+      <c r="O109">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P109" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q109">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="110" spans="10:17">
+      <c r="J110" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K110">
+        <v>0.1114206128133705</v>
+      </c>
+      <c r="L110">
+        <v>40</v>
+      </c>
+      <c r="M110">
+        <v>41</v>
+      </c>
+      <c r="N110">
+        <v>0.98</v>
+      </c>
+      <c r="O110">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P110" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="111" spans="10:17">
+      <c r="J111" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K111">
+        <v>0.09109730848861283</v>
+      </c>
+      <c r="L111">
+        <v>88</v>
+      </c>
+      <c r="M111">
+        <v>90</v>
+      </c>
+      <c r="N111">
+        <v>0.98</v>
+      </c>
+      <c r="O111">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P111" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>878</v>
       </c>
     </row>
   </sheetData>
